--- a/data/raw data/chum/Chum Pink S_R for BC_4.24.2023.xlsx
+++ b/data/raw data/chum/Chum Pink S_R for BC_4.24.2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/marisa_litz_dfw_wa_gov/Documents/Documents/Data Queries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greenbergda\Desktop\nonstationary_dynamics\data\raw data\chum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{83EC4D71-607C-449F-9A25-B33C70862DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78661CF0-1B5E-4A2A-BE99-6CAD79407A4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8CEE5-7CA6-4DCB-B6B3-784BBD402297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36FE7C36-F403-44DA-BC4E-D8B133911EB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36FE7C36-F403-44DA-BC4E-D8B133911EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Chum" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09D1961-A97E-42ED-873E-C475FAA35D9A}">
   <dimension ref="A1:Y490"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
